--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Working on</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Made Sound Manager &amp; MovementSoundManager</t>
+  </si>
+  <si>
+    <t>Making Reset Button</t>
+  </si>
+  <si>
+    <t>Getting Reset Button to reset player and all nodes and pathways</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +495,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>56.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -838,6 +844,28 @@
       </c>
       <c r="C32" s="1">
         <v>41921</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41921</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>41922</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Working on</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Getting Reset Button to reset player and all nodes and pathways</t>
+  </si>
+  <si>
+    <t>Converting  AI and Game to use GUI Nodes and paths for game</t>
   </si>
 </sst>
 </file>
@@ -466,16 +469,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -495,7 +498,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,6 +869,28 @@
       </c>
       <c r="C34" s="1">
         <v>41922</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>41922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>41923</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Working on</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Converting  AI and Game to use GUI Nodes and paths for game</t>
+  </si>
+  <si>
+    <t>Testing Unity Maze with AI, fixing bugs, fixing AI learning</t>
+  </si>
+  <si>
+    <t>started at midnight</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +504,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,7 +855,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -860,7 +866,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -871,7 +877,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -882,7 +888,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -891,6 +897,25 @@
       </c>
       <c r="C36" s="1">
         <v>41923</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>41923</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>41926</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Working on</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>started at midnight</t>
+  </si>
+  <si>
+    <t>Writing Simple Ai Script</t>
+  </si>
+  <si>
+    <t>Recording Simple Ai Script</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +510,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,11 +917,28 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
       <c r="C38" s="1">
         <v>41926</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>1.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>41926</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -135,13 +135,13 @@
     <t>Testing Unity Maze with AI, fixing bugs, fixing AI learning</t>
   </si>
   <si>
-    <t>started at midnight</t>
-  </si>
-  <si>
     <t>Writing Simple Ai Script</t>
   </si>
   <si>
     <t>Recording Simple Ai Script</t>
+  </si>
+  <si>
+    <t>Getting Simple Ai Script into the game.</t>
   </si>
 </sst>
 </file>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +493,7 @@
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -510,7 +511,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>69</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -861,7 +862,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -872,7 +873,7 @@
         <v>41921</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -883,7 +884,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -894,7 +895,7 @@
         <v>41922</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -905,20 +906,20 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C37" s="1">
         <v>41923</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>0.5</v>
@@ -926,18 +927,26 @@
       <c r="C38" s="1">
         <v>41926</v>
       </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1.5</v>
       </c>
       <c r="C39" s="1">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
         <v>41926</v>
       </c>
     </row>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Working on</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Getting Simple Ai Script into the game.</t>
+  </si>
+  <si>
+    <t>Testing for Errors, Adding in Neutrality</t>
+  </si>
+  <si>
+    <t>Adding in jumping sound</t>
   </si>
 </sst>
 </file>
@@ -481,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +517,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>72.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,6 +954,22 @@
       </c>
       <c r="C40" s="1">
         <v>41926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="12435" windowHeight="11310"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="12435" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Working on</t>
   </si>
@@ -147,7 +147,31 @@
     <t>Testing for Errors, Adding in Neutrality</t>
   </si>
   <si>
-    <t>Adding in jumping sound</t>
+    <t>updating prefabs with nodes and pathchoices</t>
+  </si>
+  <si>
+    <t>Researching Random generation for mazes</t>
+  </si>
+  <si>
+    <t>Writing Story(prequel)</t>
+  </si>
+  <si>
+    <t>Fix movement sounds</t>
+  </si>
+  <si>
+    <t>Write Maze ending types(events that will happen and how they affect game)</t>
+  </si>
+  <si>
+    <t>finding models</t>
+  </si>
+  <si>
+    <t>Week 2 Hours</t>
+  </si>
+  <si>
+    <t>seting up models (textures, collision, scale, etc)</t>
+  </si>
+  <si>
+    <t>started at 12</t>
   </si>
 </sst>
 </file>
@@ -487,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +540,8 @@
         <v>26</v>
       </c>
       <c r="F1">
-        <f>SUM(B2,B3:B300)</f>
-        <v>74.5</v>
+        <f>SUM(B2,B3:B301)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,6 +572,13 @@
       <c r="C3" s="1">
         <v>41911</v>
       </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B20:B43)</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -931,7 +962,7 @@
         <v>0.5</v>
       </c>
       <c r="C38" s="1">
-        <v>41926</v>
+        <v>41924</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +973,7 @@
         <v>1.5</v>
       </c>
       <c r="C39" s="1">
-        <v>41926</v>
+        <v>41924</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>41926</v>
+        <v>41924</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,12 +995,106 @@
         <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>41926</v>
+        <v>41924</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>41925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>2.5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>41926</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>2.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>41928</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="1">
+        <v>41929</v>
+      </c>
+      <c r="E50" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Working on</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>seting up models (textures, collision, scale, etc)</t>
-  </si>
-  <si>
-    <t>started at 12</t>
   </si>
 </sst>
 </file>
@@ -513,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +538,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B301)</f>
-        <v>92</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1072,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1086,15 +1083,15 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>4.5</v>
+      </c>
       <c r="C50" s="1">
         <v>41929</v>
-      </c>
-      <c r="E50" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Working on</t>
   </si>
@@ -169,6 +169,30 @@
   </si>
   <si>
     <t>seting up models (textures, collision, scale, etc)</t>
+  </si>
+  <si>
+    <t>Drawing new map</t>
+  </si>
+  <si>
+    <t>Drawing new map (Finished)</t>
+  </si>
+  <si>
+    <t>started at 1:30am</t>
+  </si>
+  <si>
+    <t>Making the new GUI Map</t>
+  </si>
+  <si>
+    <t>Designing new Node Travel</t>
+  </si>
+  <si>
+    <t>Making new Prefabs</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>started at 3:30am</t>
   </si>
 </sst>
 </file>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +562,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B301)</f>
-        <v>96.5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,7 +1096,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1092,6 +1116,55 @@
       </c>
       <c r="C50" s="1">
         <v>41929</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41929</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1">
+        <v>41930</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -177,22 +177,22 @@
     <t>Drawing new map (Finished)</t>
   </si>
   <si>
-    <t>started at 1:30am</t>
-  </si>
-  <si>
     <t>Making the new GUI Map</t>
   </si>
   <si>
     <t>Designing new Node Travel</t>
   </si>
   <si>
-    <t>Making new Prefabs</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>started at 3:30am</t>
+    <t>Making new Prefabs, Switching to code graph based instead of GUI</t>
+  </si>
+  <si>
+    <t>Fixing Errors in new setup</t>
+  </si>
+  <si>
+    <t>Fixed teleporting lag/glitch</t>
+  </si>
+  <si>
+    <t>Working on spawning Objects at end of the maze</t>
   </si>
 </sst>
 </file>
@@ -532,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B301)</f>
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1140,31 +1140,64 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>54</v>
-      </c>
-      <c r="D53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>55</v>
       </c>
       <c r="B54">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>6.5</v>
+      </c>
+      <c r="C55" s="1">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56">
+        <v>2.5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>41932</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Working on</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Working on spawning Objects at end of the maze</t>
+  </si>
+  <si>
+    <t>started  at midnight</t>
+  </si>
+  <si>
+    <t>Week 3 Hours</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +568,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B301)</f>
-        <v>115</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,6 +617,9 @@
       <c r="C4" s="1">
         <v>41912</v>
       </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1096,7 +1105,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1140,34 +1149,34 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1">
         <v>41931</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1">
         <v>41931</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>41931</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>41931</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1198,6 +1207,28 @@
       </c>
       <c r="C58" s="1">
         <v>41932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3.5</v>
+      </c>
+      <c r="C59" s="1">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1">
+        <v>41933</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Working on</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Drawing new map (Finished)</t>
   </si>
   <si>
-    <t>Making the new GUI Map</t>
-  </si>
-  <si>
     <t>Designing new Node Travel</t>
   </si>
   <si>
@@ -195,10 +192,10 @@
     <t>Working on spawning Objects at end of the maze</t>
   </si>
   <si>
-    <t>started  at midnight</t>
-  </si>
-  <si>
     <t>Week 3 Hours</t>
+  </si>
+  <si>
+    <t>Fixing Bugs/Cleaning a bit of code</t>
   </si>
 </sst>
 </file>
@@ -540,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,8 +564,8 @@
         <v>26</v>
       </c>
       <c r="F1">
-        <f>SUM(B2,B3:B301)</f>
-        <v>119.5</v>
+        <f>SUM(B2,B3:B300)</f>
+        <v>123.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,7 +615,11 @@
         <v>41912</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B44:B60)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>41928</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1149,86 +1150,92 @@
         <v>41930</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>41931</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1">
         <v>41931</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="C55" s="1">
         <v>41931</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
         <v>41931</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" s="1">
-        <v>41931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C58" s="1">
         <v>41932</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>41932</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>41933</v>
-      </c>
-      <c r="D60" t="s">
-        <v>59</v>
+        <v>41932</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Working on</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Fixing Bugs/Cleaning a bit of code</t>
+  </si>
+  <si>
+    <t>Research UI in Unity 4.6/Making Demo Menu</t>
+  </si>
+  <si>
+    <t>Research UI in Unity 4.6 &amp; update to 4.6</t>
   </si>
 </sst>
 </file>
@@ -535,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +571,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>123.5</v>
+        <v>132.25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1236,6 +1242,28 @@
       </c>
       <c r="C60" s="1">
         <v>41932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>7.75</v>
+      </c>
+      <c r="C62" s="1">
+        <v>41934</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Working on</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Research UI in Unity 4.6 &amp; update to 4.6</t>
+  </si>
+  <si>
+    <t>Building my games Menu System</t>
   </si>
 </sst>
 </file>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +574,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>132.25</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,6 +1267,17 @@
       </c>
       <c r="C62" s="1">
         <v>41934</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>6.25</v>
+      </c>
+      <c r="C63" s="1">
+        <v>41935</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Working on</t>
   </si>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>138.5</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,6 +1278,39 @@
       </c>
       <c r="C63" s="1">
         <v>41935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1">
+        <v>41936</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>41937</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" s="1">
+        <v>41938</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Working on</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Building my games Menu System</t>
+  </si>
+  <si>
+    <t>Writing the script</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>150.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,7 +1299,7 @@
         <v>62</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1">
         <v>41937</v>
@@ -1307,10 +1310,21 @@
         <v>62</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="C66" s="1">
         <v>41938</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="1">
+        <v>41939</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>Working on</t>
   </si>
@@ -208,6 +208,36 @@
   </si>
   <si>
     <t>Writing the script</t>
+  </si>
+  <si>
+    <t>Recording Pro Script</t>
+  </si>
+  <si>
+    <t>Week 4 hours</t>
+  </si>
+  <si>
+    <t>(lost one day)</t>
+  </si>
+  <si>
+    <t>(gained one day)</t>
+  </si>
+  <si>
+    <t>Week 5 hours</t>
+  </si>
+  <si>
+    <t>Looking through asset store to find more assets( visual and audio)</t>
+  </si>
+  <si>
+    <t>Disscusing plans about audio and improvements with team</t>
+  </si>
+  <si>
+    <t>started at 12am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting Audio ready to be put in game/Putting in game </t>
+  </si>
+  <si>
+    <t>Putting in game/Optimizing Audio</t>
   </si>
 </sst>
 </file>
@@ -547,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +592,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +607,10 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -598,7 +628,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -616,7 +646,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -634,7 +664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -644,8 +674,18 @@
       <c r="C5" s="1">
         <v>41912</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <f>SUM(B61:B67)</f>
+        <v>33.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -655,8 +695,14 @@
       <c r="C6" s="1">
         <v>41913</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -667,7 +713,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -678,7 +724,7 @@
         <v>41914</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -689,7 +735,7 @@
         <v>41915</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -700,7 +746,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -711,7 +757,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -722,7 +768,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -733,7 +779,7 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -744,7 +790,7 @@
         <v>41917</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -755,7 +801,7 @@
         <v>41917</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1294,7 +1340,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1305,7 +1351,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1316,7 +1362,7 @@
         <v>41938</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1325,6 +1371,61 @@
       </c>
       <c r="C67" s="1">
         <v>41939</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>41939</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>41939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70">
+        <v>4.5</v>
+      </c>
+      <c r="C70" s="1">
+        <v>41939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>41942</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="1">
+        <v>41943</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Working on</t>
   </si>
@@ -219,9 +219,6 @@
     <t>(lost one day)</t>
   </si>
   <si>
-    <t>(gained one day)</t>
-  </si>
-  <si>
     <t>Week 5 hours</t>
   </si>
   <si>
@@ -231,13 +228,37 @@
     <t>Disscusing plans about audio and improvements with team</t>
   </si>
   <si>
-    <t>started at 12am</t>
-  </si>
-  <si>
     <t xml:space="preserve">Getting Audio ready to be put in game/Putting in game </t>
   </si>
   <si>
-    <t>Putting in game/Optimizing Audio</t>
+    <t>Putting in game/Optimizing Audio/ Fixing Neutrality</t>
+  </si>
+  <si>
+    <t>Fixing Neutrality/Fixing Glitches/"Touching" up game</t>
+  </si>
+  <si>
+    <t>Making Graphs randomly Generated</t>
+  </si>
+  <si>
+    <t>Making Graphs randomly Generated &amp; fixing issues</t>
+  </si>
+  <si>
+    <t>fixing issues/bugs/cleaning up code</t>
+  </si>
+  <si>
+    <t>Adding Credits + above stuff</t>
+  </si>
+  <si>
+    <t>Working on Getting in End Game stuff</t>
+  </si>
+  <si>
+    <t>(gained one day + sick for one day)</t>
+  </si>
+  <si>
+    <t>Updating Options/Checking End Scene Works &amp; Fixing</t>
+  </si>
+  <si>
+    <t>2+</t>
   </si>
 </sst>
 </file>
@@ -577,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +628,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>172.5</v>
+        <v>218.25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,10 +717,14 @@
         <v>41913</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <f>SUM(B68:B78)</f>
+        <v>43.75</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1340,7 +1365,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1351,7 +1376,7 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1362,7 +1387,7 @@
         <v>41938</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1373,9 +1398,9 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -1384,9 +1409,9 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1395,7 +1420,7 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -1406,9 +1431,9 @@
         <v>41939</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -1417,15 +1442,125 @@
         <v>41942</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>41943</v>
       </c>
-      <c r="D72" t="s">
-        <v>71</v>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>2.25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>41945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" s="1">
+        <v>41945</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="1">
+        <v>41946</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>41946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" s="1">
+        <v>41946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>41946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>41947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>5.5</v>
+      </c>
+      <c r="C81" s="1">
+        <v>41949</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1">
+        <v>41950</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Working on</t>
   </si>
@@ -258,7 +258,10 @@
     <t>Updating Options/Checking End Scene Works &amp; Fixing</t>
   </si>
   <si>
-    <t>2+</t>
+    <t>Writing, Recording, putting in game new End Scene audio</t>
+  </si>
+  <si>
+    <t>Playtesting, Finding bugs, fixing fatal bugs that made game non-playable</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +631,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>218.25</v>
+        <v>229.25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1556,10 +1559,32 @@
       <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>41950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="1">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>41950</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84" s="1">
         <v>41950</v>
       </c>
     </row>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Working on</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>Playtesting, Finding bugs, fixing fatal bugs that made game non-playable</t>
+  </si>
+  <si>
+    <t>Playtesting/Fixing bugs</t>
+  </si>
+  <si>
+    <t>Week 6 hours</t>
+  </si>
+  <si>
+    <t>Week 7 hours</t>
   </si>
 </sst>
 </file>
@@ -601,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +640,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>229.25</v>
+        <v>232.25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,6 +749,13 @@
       <c r="C7" s="1">
         <v>41914</v>
       </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7">
+        <f>SUM(B79:B85)</f>
+        <v>31.5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -751,6 +767,9 @@
       <c r="C8" s="1">
         <v>41914</v>
       </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1586,6 +1605,17 @@
       </c>
       <c r="C84" s="1">
         <v>41950</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>41953</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>Working on</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>Week 7 hours</t>
+  </si>
+  <si>
+    <t>Improving old/Implementing new from Playtesting 1</t>
+  </si>
+  <si>
+    <t>Changed pathfinder to have better nextDesiredIndex</t>
+  </si>
+  <si>
+    <t>Fixing the Vo Room spawn</t>
+  </si>
+  <si>
+    <t>Other bugs: pf failure, brain failure, etc.</t>
   </si>
 </sst>
 </file>
@@ -306,9 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +653,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>232.25</v>
+        <v>248.25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1563,7 +1576,7 @@
         <v>41948</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1574,7 +1587,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1598,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1596,7 +1609,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>41950</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -1616,6 +1629,73 @@
       </c>
       <c r="C85" s="1">
         <v>41953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1">
+        <v>41954</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1">
+        <v>41955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1">
+        <v>41956</v>
+      </c>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>41956</v>
       </c>
     </row>
   </sheetData>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Working on</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>Other bugs: pf failure, brain failure, etc.</t>
+  </si>
+  <si>
+    <t>Add feature mirror hallways</t>
+  </si>
+  <si>
+    <t>Add Rail/Pathway Camera to Intro Scene (immplement &amp; check for bugs)</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +659,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>248.25</v>
+        <v>261.25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1697,6 +1703,53 @@
       <c r="C91" s="1">
         <v>41956</v>
       </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1">
+        <v>41957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>41958</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94" s="1">
+        <v>41958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1">
+        <v>41959</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>Working on</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Add Rail/Pathway Camera to Intro Scene (immplement &amp; check for bugs)</t>
+  </si>
+  <si>
+    <t>Cleaning up Rail/Path System</t>
+  </si>
+  <si>
+    <t>Recording Sound for Intro Cinema and getting it in</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +665,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>261.25</v>
+        <v>268.75</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,6 +795,10 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
+      <c r="F8">
+        <f>SUM(B86:B97)</f>
+        <v>36.5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1749,7 +1759,26 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" s="1">
+        <v>41960</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97">
+        <v>3.5</v>
+      </c>
+      <c r="C97" s="1">
+        <v>41960</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CapstoneHours.xlsx
+++ b/CapstoneHours.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
   <si>
     <t>Working on</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>Recording Sound for Intro Cinema and getting it in</t>
+  </si>
+  <si>
+    <t>Trying to fix doors not using closed texture</t>
+  </si>
+  <si>
+    <t>Playtesting 2</t>
+  </si>
+  <si>
+    <t>Fixing and improving from Playtest2</t>
+  </si>
+  <si>
+    <t>Playtesting 2.1 - Playtesting with Jamies kid and getting feedback</t>
+  </si>
+  <si>
+    <t>Playtesting 2.2 - Playtesting with a couple of people</t>
+  </si>
+  <si>
+    <t>Smooth Camera turn</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Presentation+</t>
+  </si>
+  <si>
+    <t>11/29/2014 - 12/2/2014</t>
   </si>
 </sst>
 </file>
@@ -635,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +673,7 @@
     <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -665,7 +693,7 @@
       </c>
       <c r="F1">
         <f>SUM(B2,B3:B300)</f>
-        <v>268.75</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,6 +1806,116 @@
       </c>
       <c r="C97" s="1">
         <v>41960</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1">
+        <v>41961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>41962</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B100">
+        <v>7.25</v>
+      </c>
+      <c r="C100" s="1">
+        <v>41963</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>41964</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1">
+        <v>41964</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1">
+        <v>41966</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>41967</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1">
+        <v>41968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1">
+        <v>41969</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
